--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3576345.865135522</v>
+        <v>3680371.916996028</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7654648.78684858</v>
+        <v>7618489.074567025</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>64.98987853066029</v>
       </c>
       <c r="H2" t="n">
-        <v>117.4137306658396</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>47.05786958631525</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>41.3417894521356</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>195.5504310656884</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>68.28762422566705</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>99.56809597981909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>51.56887637424925</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>61.50602091429878</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>195.046595418646</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>85.59731988865352</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>45.37452257140345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>45.97180554613971</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>119.456671712837</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.1630968205468</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>65.99480013030555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>15.09910835322218</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>39.17658763086867</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>74.56474874233525</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652572</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>110.9396563989393</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261737</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>159.3654058540556</v>
       </c>
     </row>
     <row r="44">
@@ -4141,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.73433514020032</v>
+        <v>25.07757910977682</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.186667467493</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C2" t="n">
-        <v>1755.224150527082</v>
+        <v>1626.778813528712</v>
       </c>
       <c r="D2" t="n">
-        <v>1396.958451920331</v>
+        <v>1268.513114921961</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.170199322087</v>
+        <v>882.7248623237169</v>
       </c>
       <c r="F2" t="n">
-        <v>600.1842945324795</v>
+        <v>471.7389575341094</v>
       </c>
       <c r="G2" t="n">
-        <v>185.111844377476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792695</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531615</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2510.786507531615</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
@@ -4401,19 +4403,19 @@
         <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
@@ -4425,34 +4427,34 @@
         <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.4781294962293</v>
+        <v>692.3528358643472</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>523.4166529364403</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>373.3000135241045</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>373.3000135241045</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699991</v>
+        <v>874.0013006945869</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.126594326469</v>
+        <v>874.0013006945869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1792.126722677733</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1423.164205737321</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1064.898507130571</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>679.1102545323267</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3256.628423401427</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3050.65067578565</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2797.120199059486</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2466.057311715915</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2466.057311715915</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4647,25 +4649,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>726.244744926704</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C7" t="n">
-        <v>726.244744926704</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D7" t="n">
-        <v>726.244744926704</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E7" t="n">
-        <v>578.3316513443109</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>215.9275677292414</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>215.9275677292414</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.685788900474</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.8932097569437</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3128.589058560035</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2797.526171216464</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2797.526171216464</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.060412955384</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.921080979572</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607.0615673062264</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>446.0811899937042</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>299.1912424957939</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1599.945355590621</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1345.260867384734</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1055.843697347774</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X10" t="n">
-        <v>827.8541464497565</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y10" t="n">
-        <v>607.0615673062264</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="11">
@@ -5030,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>449.1607607092168</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>281.9646614240967</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>140.2528302662948</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,22 +5597,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,13 +5898,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>3336.216066251167</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>3167.27988332326</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>3017.163243910925</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>2869.250150328532</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2380.301669307225</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.700204330166</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.624977674364</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6481,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,10 +6952,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.493192213312</v>
+        <v>3118.738694571971</v>
       </c>
       <c r="C37" t="n">
-        <v>2834.086956247061</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.500263796382</v>
+        <v>2799.685872231729</v>
       </c>
       <c r="E37" t="n">
-        <v>2585.117117175645</v>
+        <v>2651.772778649336</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.757116639391</v>
+        <v>2504.882831151425</v>
       </c>
       <c r="G37" t="n">
-        <v>2320.090964315927</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H37" t="n">
-        <v>2202.909080119781</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>2145.352323729351</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>2249.630143176794</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>2535.361206719452</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>2949.801601912512</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>3395.853105660666</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>3837.304778337793</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>4230.875860063898</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>4547.593116654576</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>4648.317395612653</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>4489.992508229214</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>4294.920990213811</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>4030.375710519665</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>3800.221169275434</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="W37" t="n">
-        <v>3535.33394620013</v>
+        <v>3642.838752636079</v>
       </c>
       <c r="X37" t="n">
-        <v>3331.874342263769</v>
+        <v>3414.849201738062</v>
       </c>
       <c r="Y37" t="n">
-        <v>3135.611710081895</v>
+        <v>3194.056622594532</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,13 +7192,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492579</v>
@@ -7205,7 +7207,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096656</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319343</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656836</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380732</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931275</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532433</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594057</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400518</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7652,13 +7654,13 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.29403077242583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>26.97729093373219</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202384447</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.031485871339</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>152.1477127454056</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.267231439602</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.4657939283489</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>59.21924749803918</v>
       </c>
     </row>
     <row r="44">
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>142.9753202488369</v>
+        <v>200.6320762792603</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>667202.4632966362</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="L2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,25 +26441,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="K4" t="n">
-        <v>19157.89151488698</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19157.89151488698</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488698</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488701</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488698</v>
-      </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.0719410616</v>
+        <v>-747043.071941062</v>
       </c>
       <c r="C6" t="n">
         <v>581701.6737865312</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.6737865313</v>
+        <v>581701.673786531</v>
       </c>
       <c r="E6" t="n">
-        <v>329087.24582245</v>
+        <v>329087.2458224503</v>
       </c>
       <c r="F6" t="n">
+        <v>654499.7076298051</v>
+      </c>
+      <c r="G6" t="n">
+        <v>654499.7076298054</v>
+      </c>
+      <c r="H6" t="n">
         <v>654499.7076298053</v>
-      </c>
-      <c r="G6" t="n">
-        <v>654499.7076298052</v>
-      </c>
-      <c r="H6" t="n">
-        <v>654499.7076298051</v>
       </c>
       <c r="I6" t="n">
         <v>654499.7076298053</v>
@@ -26546,22 +26548,22 @@
         <v>436968.5052325278</v>
       </c>
       <c r="K6" t="n">
-        <v>638239.9560086355</v>
+        <v>654499.7076298054</v>
       </c>
       <c r="L6" t="n">
-        <v>657667.674002267</v>
+        <v>654499.7076298053</v>
       </c>
       <c r="M6" t="n">
-        <v>572612.6460667551</v>
+        <v>569444.6796942931</v>
       </c>
       <c r="N6" t="n">
-        <v>657667.674002267</v>
+        <v>654499.7076298052</v>
       </c>
       <c r="O6" t="n">
-        <v>657667.674002267</v>
+        <v>654499.7076298051</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.7076298054</v>
+        <v>654499.7076298052</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>345.9318471227932</v>
       </c>
       <c r="H2" t="n">
-        <v>177.1940337214808</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>120.1889515123126</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>104.0792585707956</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>211.3256146760231</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.90013756250876</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>45.85295204311215</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.18613854007154</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>321.2278207491818</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>55.948576540256</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>80.42848837037471</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>240.8373156342094</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883004</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32315,13 +32317,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32546,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.0290152085043</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>171.0290152085043</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157699</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181832</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34205,31 +34207,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>489.8124929257566</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34442,10 +34444,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>288.8958573929167</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496711</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937516</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961649</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016748</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.557074493085</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>347.2162484813122</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>157.5541453095834</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3680371.916996028</v>
+        <v>3676359.306982035</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>179.9948012226675</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>64.98987853066029</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>41.3417894521356</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>39.47168301525344</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>195.5504310656884</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>174.7869190180879</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>51.56887637424925</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.50602091429878</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>118.5482349853166</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.59731988865352</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710055</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892427991</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>74.53917159609126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989334</v>
       </c>
       <c r="I16" t="n">
-        <v>45.97180554613971</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.90335196317894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>119.456671712837</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>148.8796904206629</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>139.1630968205468</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>15.09910835322218</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>39.17658763086867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.56474874233525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>110.9396563989393</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.3654058540556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>25.07757910977682</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.741330469123</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.778813528712</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.513114921961</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>882.7248623237169</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>471.7389575341094</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533245</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
@@ -4421,40 +4421,40 @@
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.3528358643472</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>523.4166529364403</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>373.3000135241045</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>373.3000135241045</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>874.0013006945869</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>874.0013006945869</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1792.126722677733</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1423.164205737321</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1064.898507130571</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E5" t="n">
-        <v>679.1102545323267</v>
+        <v>654.050464674405</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>243.0645598847975</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653545</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1792.126722677733</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>215.9275677292414</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>215.9275677292414</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3095.569461231905</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4895,28 +4895,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>593.9942835760974</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>593.9942835760974</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>593.9942835760974</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>446.0811899937042</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>299.1912424957939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>996.4353275498672</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.6427484063371</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5029,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270425</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473698</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C16" t="n">
-        <v>746.1673476194629</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D16" t="n">
-        <v>596.0507082071272</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="E16" t="n">
-        <v>596.0507082071272</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="F16" t="n">
-        <v>449.1607607092168</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9646614240967</v>
+        <v>261.8464821474253</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2528302662948</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>989.3306680894883</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>820.3944851615814</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>670.2778457492457</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y25" t="n">
-        <v>1170.979132919728</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3336.216066251167</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3167.27988332326</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>3017.163243910925</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2869.250150328532</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3966.646661122954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3738.657110224937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3517.864531081407</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,16 +6721,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3118.738694571971</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.685872231729</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649336</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151425</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.25592267304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636079</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594532</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7201,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5579673960132</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X46" t="n">
-        <v>1185.999011369783</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.2064322262529</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194397</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>55.21102825633055</v>
       </c>
       <c r="I16" t="n">
-        <v>35.29403077242583</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26.97729093373219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.257951202384447</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>152.1477127454056</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.267231439602</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>106.4657939283489</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.21924749803918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>105.8542358274168</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>200.6320762792603</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179364</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179361</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26447,7 +26447,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.071941062</v>
+        <v>-747043.0719410619</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.6737865312</v>
+        <v>581701.673786531</v>
       </c>
       <c r="D6" t="n">
         <v>581701.673786531</v>
       </c>
       <c r="E6" t="n">
-        <v>329087.2458224503</v>
+        <v>328739.8665680934</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298051</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754479</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.7076298053</v>
+        <v>654152.328375448</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.7076298053</v>
+        <v>654152.3283754482</v>
       </c>
       <c r="J6" t="n">
-        <v>436968.5052325278</v>
+        <v>436621.1259781705</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="L6" t="n">
-        <v>654499.7076298053</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="M6" t="n">
-        <v>569444.6796942931</v>
+        <v>569097.3004399362</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.7076298051</v>
+        <v>654152.328375448</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754481</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>185.2780905483401</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>345.9318471227932</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>104.0792585707956</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>247.0513153213376</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>211.3256146760231</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>236.1348066353655</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>93.18613854007154</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>321.2278207491818</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>132.4469369735854</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.42848837037471</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.025414319020989e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28146,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>444.227491598291</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883004</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32551,7 +32551,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.0290152085043</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>314.3020503687028</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.0290152085043</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33973,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>489.8124929257566</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762726</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496711</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>171.7058059242583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37621,7 +37621,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>347.2162484813122</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3676359.306982035</v>
+        <v>3678119.837284822</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618489.074567025</v>
+        <v>7618489.074567024</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>179.9948012226675</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>311.4842778498544</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>33.38304376059015</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.7869190180879</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>238.602224857842</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>118.5482349853166</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892427991</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691078</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>85.08368458989334</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>148.8796904206629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2158.0178522615</v>
+        <v>1565.440264581602</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1196.47774764119</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>838.2120490344398</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.0178522615</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4479,13 +4479,13 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>654.050464674405</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>654.050464674405</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>243.0645598847975</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.532988317206</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>892.5704713767946</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>647.104963925202</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3095.569461231905</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2764.506573888334</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2411.73791861822</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2038.27216035714</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.132828381328</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121625</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121625</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121625</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121625</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270425</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876679</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.963121559761</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474253</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474253</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474253</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>261.8464821474253</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5664,22 +5664,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7083,10 +7083,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.285089135946</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2045.209862480144</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194397</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.6085800303775</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>55.21102825633055</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179364</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26441,13 +26441,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747043.0719410619</v>
+        <v>-747043.0719410618</v>
       </c>
       <c r="C6" t="n">
-        <v>581701.673786531</v>
+        <v>581701.6737865307</v>
       </c>
       <c r="D6" t="n">
-        <v>581701.673786531</v>
+        <v>581701.6737865309</v>
       </c>
       <c r="E6" t="n">
-        <v>328739.8665680934</v>
+        <v>329052.5078970144</v>
       </c>
       <c r="F6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="G6" t="n">
-        <v>654152.3283754479</v>
+        <v>654464.9697043697</v>
       </c>
       <c r="H6" t="n">
-        <v>654152.328375448</v>
+        <v>654464.9697043691</v>
       </c>
       <c r="I6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="J6" t="n">
-        <v>436621.1259781705</v>
+        <v>436933.767307092</v>
       </c>
       <c r="K6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="L6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043699</v>
       </c>
       <c r="M6" t="n">
-        <v>569097.3004399362</v>
+        <v>569409.9417688578</v>
       </c>
       <c r="N6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="O6" t="n">
-        <v>654152.328375448</v>
+        <v>654464.9697043699</v>
       </c>
       <c r="P6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043697</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>185.2780905483401</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95.39176789185706</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1348066353655</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>172.3195007956114</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>132.4469369735854</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.025414319020989e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28146,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.227491598291</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
